--- a/Software/MDB.xlsx
+++ b/Software/MDB.xlsx
@@ -8,22 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EE649D-39BA-824F-BDB4-E2947A30F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCAA82-D1DC-C744-8DA1-3C7CAC52887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF Model" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'DCF Model'!$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'DCF Model'!$A$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'DCF Model'!$A$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DCF Model'!$B$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DCF Model'!$B$15:$J$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DCF Model'!$B$18:$J$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DCF Model'!$B$9:$J$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -695,6 +686,63 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -709,63 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2064,11 +2055,11 @@
     <v>Powered by Refinitiv</v>
     <v>509.62</v>
     <v>212.74</v>
-    <v>1.1369</v>
-    <v>6.23</v>
-    <v>2.2675000000000001E-2</v>
-    <v>-0.19</v>
-    <v>-6.7619999999999996E-4</v>
+    <v>1.1342000000000001</v>
+    <v>13.14</v>
+    <v>4.6765000000000001E-2</v>
+    <v>-5.0316000000000001</v>
+    <v>-1.7107000000000001E-2</v>
     <v>USD</v>
     <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allows development teams to address the growing variety of modern application requirements. Its customers can implement its developer data platform as a managed service offering, or they can choose a self-managed option. Its MongoDB Atlas is its managed multi-cloud database-as-a-service (DBaaS) offering that includes an integrated set of databases and related services. Its vector search product is closely integrated with its globally distributed operational database, allowing customers to store all types of data needed for an artificial intelligence (AI)-enabled application, vector data, metadata and operational data. MongoDB Enterprise Advanced is its proprietary self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It also provides professional services for its customers.</v>
     <v>5037</v>
@@ -2076,26 +2067,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1633 Broadway Fl 38, NEW YORK, NY, 10019-6763 US</v>
-    <v>288.08999999999997</v>
+    <v>295.51</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.933717360938</v>
+    <v>45604.039745635935</v>
     <v>4</v>
-    <v>280.61</v>
-    <v>20755838061</v>
+    <v>280.87</v>
+    <v>21726482634</v>
     <v>MONGODB, INC.</v>
     <v>MONGODB, INC.</v>
-    <v>281</v>
+    <v>280.87</v>
     <v>0</v>
-    <v>274.75</v>
     <v>280.98</v>
-    <v>280.79000000000002</v>
+    <v>294.12</v>
+    <v>289.08839999999998</v>
     <v>73869450</v>
     <v>MDB</v>
     <v>MONGODB, INC. (XNAS:MDB)</v>
-    <v>940793</v>
-    <v>1199728</v>
+    <v>1192229</v>
+    <v>1181312</v>
     <v>2007</v>
   </rv>
   <rv s="4">
@@ -2280,9 +2271,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3036,18 +3027,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="e" vm="1">
+      <c r="A1" s="76" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:18" s="16" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
@@ -3058,14 +3049,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>280.98</v>
+        <v>294.12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>10.771062823559937</v>
+        <v>11.274770437986508</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -3105,14 +3096,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.2675000000000001E-2</v>
+        <v>4.6765000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>100.75649544174757</v>
+        <v>105.46836230097087</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3153,14 +3144,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>20755838061</v>
+        <v>21726482634</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>7.7568537356493108E-3</v>
+        <v>7.4103113104948435E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3202,7 +3193,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1369</v>
+        <v>1.1342000000000001</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3234,7 +3225,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>-0.66439305286208106</v>
+        <v>-0.67938650888476659</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3300,19 +3291,19 @@
       <c r="E9" s="56">
         <v>2024</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="57">
         <v>2025</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="57">
         <v>2026</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="57">
         <v>2027</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="57">
         <v>2028</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="58">
         <v>2029</v>
       </c>
       <c r="K9" s="13"/>
@@ -3340,22 +3331,22 @@
       <c r="E10" s="24">
         <v>1683000000</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="59">
         <v>1927000000</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="59">
         <v>2264000000</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="59">
         <v>2765000000</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="59">
         <v>3256000000</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="59">
         <v>4081000000</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="60" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="2"/>
@@ -3401,7 +3392,7 @@
         <f t="shared" si="0"/>
         <v>0.25337837837837829</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="61">
         <f>AVERAGE(F11:J11)</f>
         <v>0.19442148531031861</v>
       </c>
@@ -3434,7 +3425,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="67"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3463,7 +3454,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="30"/>
-      <c r="K13" s="68"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3497,7 +3488,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3522,22 +3513,22 @@
       <c r="E15" s="24">
         <v>-176600000</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="59">
         <v>206000000</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="59">
         <v>256400000</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="59">
         <v>358000000</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="59">
         <v>700000000</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="59">
         <v>1155000000</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="60" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
@@ -3583,7 +3574,7 @@
         <f t="shared" si="1"/>
         <v>0.64999999999999991</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="63">
         <f>AVERAGE(G16:J16)</f>
         <v>0.56155582674464977</v>
       </c>
@@ -3635,7 +3626,7 @@
         <f t="shared" si="2"/>
         <v>0.28301886792452829</v>
       </c>
-      <c r="K17" s="70"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3660,22 +3651,22 @@
       <c r="E18" s="24">
         <v>-279000000</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="59">
         <v>161000000</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="59">
         <v>252000000</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="59">
         <v>365000000</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="59">
         <v>542000000</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="59">
         <v>760000000</v>
       </c>
-      <c r="K18" s="65" t="s">
+      <c r="K18" s="60" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2"/>
@@ -3720,7 +3711,7 @@
         <f t="shared" si="3"/>
         <v>0.40221402214022151</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="63">
         <f>AVERAGE(G19:J19)</f>
         <v>0.47519390467664568</v>
       </c>
@@ -3772,7 +3763,7 @@
         <f t="shared" si="4"/>
         <v>0.18622886547414849</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3782,27 +3773,27 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="68">
         <v>60266000</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="68">
         <v>66753000</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="68">
         <v>69286000</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="69">
         <v>72178000</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="65" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="60" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
@@ -3813,26 +3804,26 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77">
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72">
         <f t="shared" ref="C22" si="5">(C21/B21)-1</f>
         <v>0.10763946503833011</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="73">
         <f t="shared" ref="D22" si="6">(D21/C21)-1</f>
         <v>3.7945860111155971E-2</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="74">
         <f t="shared" ref="E22" si="7">(E21/D21)-1</f>
         <v>4.1740034061715114E-2</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="80">
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="75">
         <f>AVERAGE(C22:E22)</f>
         <v>6.2441786403733733E-2</v>
       </c>
@@ -3866,17 +3857,17 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59" t="str" cm="1">
+      <c r="A25" s="78" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60" cm="1">
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2007</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3911,14 +3902,14 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="str" cm="1">
+      <c r="A27" s="80" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_FV(A1,"Description")</f>
         <v>MongoDB, Inc. is a developer data platform company. Its developer data platform is an integrated set of databases and related services that allows development teams to address the growing variety of modern application requirements. Its customers can implement its developer data platform as a managed service offering, or they can choose a self-managed option. Its MongoDB Atlas is its managed multi-cloud database-as-a-service (DBaaS) offering that includes an integrated set of databases and related services. Its vector search product is closely integrated with its globally distributed operational database, allowing customers to store all types of data needed for an artificial intelligence (AI)-enabled application, vector data, metadata and operational data. MongoDB Enterprise Advanced is its proprietary self-managed commercial offering for enterprise customers that can run in the cloud, on-premises or in a hybrid environment. It also provides professional services for its customers.</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -3934,11 +3925,11 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3954,11 +3945,11 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3974,11 +3965,11 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -3994,11 +3985,11 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4014,11 +4005,11 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4034,11 +4025,11 @@
       <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4054,11 +4045,11 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -4074,11 +4065,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
